--- a/dataset/score/sundariimani.xlsx
+++ b/dataset/score/sundariimani.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.34</v>
+        <v>0.2757142857142857</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>-0.05000000000000004</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1057,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6261904761904762</v>
+        <v>0.6023809523809524</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>-0.02380952380952372</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J21" t="n">
         <v>0.5</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J26" t="n">
         <v>0.75</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5775</v>
+        <v>0.5260714285714286</v>
       </c>
       <c r="G29" t="n">
         <v>0.75</v>
@@ -1825,7 +1825,7 @@
         <v>0.9875</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J29" t="n">
         <v>0.25</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
         <v>0.5</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.945</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1969,10 +1969,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2209,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2353,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8642857142857142</v>
+        <v>0.8547619047619047</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>0.9880952380952381</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J42" t="n">
         <v>0.75</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J45" t="n">
         <v>0.75</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6125</v>
+        <v>0.5592857142857144</v>
       </c>
       <c r="G47" t="n">
         <v>0.75</v>
@@ -2689,7 +2689,7 @@
         <v>0.975</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5875</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J47" t="n">
         <v>0.5</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.7175</v>
+        <v>0.6989285714285713</v>
       </c>
       <c r="G48" t="n">
         <v>0.75</v>
@@ -2737,7 +2737,7 @@
         <v>0.8875</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="J48" t="n">
         <v>0.5</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.3775000000000001</v>
+        <v>0.3439285714285715</v>
       </c>
       <c r="G49" t="n">
         <v>0.5</v>
@@ -2785,7 +2785,7 @@
         <v>0.6125</v>
       </c>
       <c r="I49" t="n">
-        <v>0.275</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J49" t="n">
         <v>0.25</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.7880952380952382</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>0.9761904761904762</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="J51" t="n">
         <v>0.5</v>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.43</v>
+        <v>0.3332142857142857</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3073,10 +3073,10 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4125</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K55" t="n">
         <v>0.25</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.7375</v>
+        <v>0.7564285714285715</v>
       </c>
       <c r="G58" t="n">
         <v>0.75</v>
@@ -3217,10 +3217,10 @@
         <v>0.925</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K58" t="n">
         <v>0.75</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.6975</v>
+        <v>0.6592857142857144</v>
       </c>
       <c r="G61" t="n">
         <v>0.75</v>
@@ -3361,7 +3361,7 @@
         <v>0.975</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J61" t="n">
         <v>0.25</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.9475</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3937,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
         <v>0.5</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4225,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.78</v>
+        <v>0.7189285714285714</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4273,10 +4273,10 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9125</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J81" t="n">
         <v>0.75</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J88" t="n">
         <v>0.5</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4945,10 +4945,10 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J96" t="n">
         <v>0.75</v>

--- a/dataset/score/sundariimani.xlsx
+++ b/dataset/score/sundariimani.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.2757142857142857</v>
+        <v>0.4757142857142857</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0.1785714285714286</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1432,13 +1432,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6023809523809524</v>
+        <v>0.8023809523809524</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.02380952380952372</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0.7857142857142857</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1816,19 +1816,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5260714285714286</v>
+        <v>0.6260714285714286</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="J29" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K29" t="n">
         <v>0.5</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J37" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -2443,10 +2443,10 @@
         <v>0.8547619047619047</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9880952380952381</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0.7857142857142857</v>
@@ -2680,19 +2680,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5592857142857144</v>
+        <v>0.5592857142857143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.75</v>
+        <v>0.975</v>
       </c>
       <c r="H47" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0.3214285714285715</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K47" t="n">
         <v>0.25</v>
@@ -2728,13 +2728,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.6989285714285713</v>
+        <v>0.7489285714285714</v>
       </c>
       <c r="G48" t="n">
-        <v>0.75</v>
+        <v>0.8875</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8875</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0.6071428571428571</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.3439285714285715</v>
+        <v>0.3439285714285714</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.6125</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6125</v>
+        <v>0.75</v>
       </c>
       <c r="I49" t="n">
         <v>0.1071428571428571</v>
       </c>
       <c r="J49" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0.25</v>
@@ -2875,10 +2875,10 @@
         <v>0.7523809523809524</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9761904761904762</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0.5357142857142857</v>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -3064,19 +3064,19 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.3332142857142857</v>
+        <v>0.5832142857142857</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0.1785714285714286</v>
       </c>
       <c r="J55" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K55" t="n">
         <v>0.25</v>
@@ -3208,13 +3208,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.7564285714285715</v>
+        <v>0.8064285714285715</v>
       </c>
       <c r="G58" t="n">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="H58" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0.6071428571428571</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3352,19 +3352,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.6592857142857144</v>
+        <v>0.6592857142857143</v>
       </c>
       <c r="G61" t="n">
-        <v>0.75</v>
+        <v>0.975</v>
       </c>
       <c r="H61" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="J61" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0.75</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -4264,19 +4264,19 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.7189285714285714</v>
+        <v>0.9689285714285715</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="J80" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
